--- a/DOCS/MERISE/Dictionnaire de données.xlsx
+++ b/DOCS/MERISE/Dictionnaire de données.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80010-84-02\Desktop\CDA_20046-1\DOCS\MERISE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="176">
   <si>
     <t>CODE</t>
   </si>
@@ -202,18 +210,6 @@
     <t>ADDRESS (Carnet d'adresse)</t>
   </si>
   <si>
-    <t>adress_lastname</t>
-  </si>
-  <si>
-    <t>prénom du destinataire</t>
-  </si>
-  <si>
-    <t>adress_firstname</t>
-  </si>
-  <si>
-    <t>nom du destinataire</t>
-  </si>
-  <si>
     <t>adress_address</t>
   </si>
   <si>
@@ -524,89 +520,123 @@
   </si>
   <si>
     <t>nom du contact au sein de l'entreprise</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_comment</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>longtext</t>
+  </si>
+  <si>
+    <t>pourcentage d'avis</t>
+  </si>
+  <si>
+    <t>titre du commentaire</t>
+  </si>
+  <si>
+    <t>commentaire</t>
+  </si>
+  <si>
+    <t>REVIEW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -698,9 +728,21 @@
         <bgColor rgb="FFD5A6BD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -714,6 +756,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -725,6 +768,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -733,6 +778,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -741,136 +789,153 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1060,27 +1125,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.0"/>
-    <col customWidth="1" min="2" max="2" width="47.14"/>
-    <col customWidth="1" min="3" max="3" width="51.14"/>
-    <col customWidth="1" min="4" max="4" width="35.14"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1104,11 +1174,11 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1118,9 +1188,9 @@
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4">
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1130,841 +1200,852 @@
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="12" t="s">
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="36"/>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="36"/>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="37"/>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" ht="15">
+      <c r="A33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15">
+      <c r="A34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:9" ht="15">
+      <c r="A35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:9" ht="15">
+      <c r="A36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:9" ht="15">
+      <c r="A37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:9" ht="15">
+      <c r="A38" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" ht="15">
+      <c r="A39" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="D39" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="10" t="s">
+    </row>
+    <row r="40" spans="1:9" ht="15">
+      <c r="A40" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="B40" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="C40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" ht="15">
+      <c r="A41" s="6" t="s">
         <v>106</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="s">
+      <c r="D41" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" ht="15">
+      <c r="A42" s="6" t="s">
         <v>109</v>
       </c>
+      <c r="B42" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="C42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" ht="15">
+      <c r="A43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="s">
+      <c r="D43" s="21"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" ht="15">
+      <c r="A44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:9" ht="15">
+      <c r="A45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:9" ht="15">
+      <c r="A46" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:9" ht="15">
+      <c r="A47" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="C47" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:9" ht="15">
+      <c r="A48" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:4" ht="15">
+      <c r="A49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="22"/>
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="D50" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" ht="15">
+      <c r="A52" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" ht="15">
+      <c r="A53" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="22"/>
+    </row>
+    <row r="54" spans="1:4" ht="15">
+      <c r="A54" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15">
+      <c r="A55" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:4" ht="15">
+      <c r="A56" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="I44" s="25"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="14" t="s">
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="1:4" ht="15">
+      <c r="A57" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="15">
+      <c r="A58" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
+      <c r="A59" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" ht="15">
+      <c r="A60" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:4" ht="15">
+      <c r="A61" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="21"/>
+    </row>
+    <row r="62" spans="1:4" ht="15">
+      <c r="A62" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="28" t="s">
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:4" ht="15">
+      <c r="A63" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="22"/>
+    </row>
+    <row r="64" spans="1:4" ht="15">
+      <c r="A64" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="28" t="s">
+      <c r="D64" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15">
+      <c r="A65" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:4" ht="15">
+      <c r="A66" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="28" t="s">
+      <c r="D66" s="21"/>
+    </row>
+    <row r="67" spans="1:4" ht="15">
+      <c r="A67" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A68" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15">
+      <c r="A69" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="26" t="s">
+      <c r="D69" s="45"/>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A70" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="B69" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="71">
-      <c r="D71" s="36"/>
+      <c r="B70" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D60:D65"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D40"/>
+  <mergeCells count="15">
+    <mergeCell ref="D68:D70"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D13"/>
-    <mergeCell ref="D43:D51"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D54:D57"/>
   </mergeCells>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>